--- a/data/output/FV2310_FV2304/REMADV/33004.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="237">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="237">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -878,6 +878,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U98" totalsRowShown="0">
+  <autoFilter ref="A1:U98"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,7 +1197,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5650,5 +5683,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/REMADV/33004.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="331">
   <si>
     <t>#</t>
   </si>
@@ -5772,9 +5772,7 @@
         <v>182</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>38</v>
       </c>
@@ -5874,9 +5872,7 @@
         <v>182</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>39</v>
       </c>
@@ -5957,44 +5953,42 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="K91" s="2"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5" t="s">
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V91" s="5"/>
+      <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -6022,9 +6016,7 @@
         <v>182</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6049,44 +6041,42 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5" t="s">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6114,9 +6104,7 @@
         <v>182</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>41</v>
       </c>
@@ -6166,9 +6154,7 @@
       <c r="K95" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L95" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>41</v>
       </c>
@@ -6193,44 +6179,42 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5" t="s">
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6256,9 +6240,7 @@
         <v>182</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>42</v>
       </c>
@@ -6304,9 +6286,7 @@
         <v>182</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2310_FV2304/REMADV/33004.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33004.xlsx
@@ -1615,7 +1615,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2709,7 +2709,7 @@
         <v>203</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4653,7 +4653,7 @@
         <v>207</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4805,7 +4805,7 @@
         <v>209</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -4997,7 +4997,7 @@
         <v>211</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5583,23 +5583,23 @@
       <c r="V83" s="9"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="6" t="s">
         <v>197</v>
       </c>
@@ -5609,20 +5609,20 @@
       <c r="L84" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O84" s="5" t="s">
+      <c r="O84" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
       <c r="U84" s="6" t="s">
         <v>231</v>
       </c>
@@ -5797,23 +5797,23 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="6" t="s">
         <v>200</v>
       </c>
@@ -5823,20 +5823,20 @@
       <c r="L88" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
       <c r="U88" s="6" t="s">
         <v>233</v>
       </c>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2"/>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2"/>
